--- a/data/trans_dic/P56$auxiliar-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$auxiliar-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,7 +740,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,27</t>
+          <t>0,0; 55,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +760,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,49</t>
+          <t>0,0; 40,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,96</t>
+          <t>0,0; 49,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,25</t>
+          <t>4,33; 36,34</t>
         </is>
       </c>
     </row>
@@ -869,7 +870,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,78</t>
+          <t>0,0; 67,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,7 +880,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,75</t>
+          <t>0,0; 38,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +900,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,26; 45,1</t>
+          <t>6,02; 49,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,7 +910,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,15</t>
+          <t>0,0; 51,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,04; 32,2</t>
+          <t>6,52; 34,14</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,24; 53,44</t>
+          <t>15,0; 53,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,7 +1030,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,0; 62,5</t>
+          <t>9,94; 69,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,36; 51,09</t>
+          <t>18,88; 50,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,7 +1050,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,96; 43,73</t>
+          <t>5,98; 44,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,8; 47,56</t>
+          <t>21,6; 45,63</t>
         </is>
       </c>
     </row>
@@ -1149,57 +1150,57 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,96</t>
+          <t>0,0; 15,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 28,4</t>
+          <t>3,17; 24,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,12; 33,31</t>
+          <t>13,74; 34,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,15</t>
+          <t>0,0; 61,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,53</t>
+          <t>0,0; 30,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,09</t>
+          <t>0,0; 37,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,21; 41,56</t>
+          <t>18,18; 41,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,41</t>
+          <t>0,0; 15,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 14,42</t>
+          <t>1,74; 14,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 21,84</t>
+          <t>1,86; 20,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,18; 32,48</t>
+          <t>18,22; 32,37</t>
         </is>
       </c>
     </row>
@@ -1289,57 +1290,57 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,01; 54,34</t>
+          <t>12,22; 59,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,12</t>
+          <t>0,0; 22,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,87; 42,87</t>
+          <t>10,48; 42,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,35</t>
+          <t>0,0; 24,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,9; 36,17</t>
+          <t>14,75; 36,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,21</t>
+          <t>0,0; 21,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,44; 36,34</t>
+          <t>22,87; 36,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,25</t>
+          <t>0,0; 19,65</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,32; 37,42</t>
+          <t>17,85; 37,46</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 13,88</t>
+          <t>1,31; 14,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,98; 34,64</t>
+          <t>21,98; 34,42</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,83; 16,81</t>
+          <t>1,8; 16,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,76; 27,34</t>
+          <t>12,07; 27,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,72; 15,49</t>
+          <t>2,66; 15,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,62; 33,0</t>
+          <t>20,34; 32,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,83; 16,81</t>
+          <t>1,8; 16,86</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,76; 27,34</t>
+          <t>12,07; 27,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,72; 15,49</t>
+          <t>2,66; 15,51</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>19,83; 31,98</t>
+          <t>20,13; 32,2</t>
         </is>
       </c>
     </row>
@@ -1569,57 +1570,57 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,85; 20,26</t>
+          <t>5,28; 20,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,18; 13,04</t>
+          <t>2,28; 13,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,15; 29,18</t>
+          <t>16,1; 29,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 13,87</t>
+          <t>3,15; 13,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,71; 26,7</t>
+          <t>14,39; 26,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,97; 11,93</t>
+          <t>3,53; 12,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,68; 31,3</t>
+          <t>23,62; 31,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,62; 9,73</t>
+          <t>1,59; 8,99</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>13,52; 22,56</t>
+          <t>13,48; 22,93</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,86; 10,72</t>
+          <t>3,73; 10,82</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>22,32; 29,31</t>
+          <t>22,6; 29,53</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda los Servicios Sociales cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1138</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1728</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1007</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1875</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1982</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3150</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 983</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1448</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3801</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2352</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1351</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1977</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5573</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>501; 4200</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1157</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1080</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1671</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1157</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2751</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 632</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4394</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1483</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3327</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1442</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1475</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2000</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>488; 3978</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1474</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5092</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1941</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1100; 5756</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4288</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3292</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6191</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3292</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>10479</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1393</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1649</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1513</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2057; 7381</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1621</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1046; 7308</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1920</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3404; 9074</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1641</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1053; 7752</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1768</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6858; 14488</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2182</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2456</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>11222</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1098</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1698</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8094</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3280</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>19316</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1703</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6750</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>782; 5923</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6943; 17389</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4548</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5504</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 8147</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5124; 11732</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5807</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1060; 8773</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>867; 9731</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>14343; 25486</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5476</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1761</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4445</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>16372</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1271</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>23913</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>21848</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3032</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>28359</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1607</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2217; 10810</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5666</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1902; 7682</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4181</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9636; 23847</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7577</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>18943; 30515</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5405</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>14905; 31272</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>806; 8667</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>22193; 34759</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4426</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>20084</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7463</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>26767</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4426</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>20084</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>7463</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>26767</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 778</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1080; 10108</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>12503; 28015</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2563; 14936</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>20997; 33665</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1080; 10108</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>12503; 28015</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2563; 14936</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>21214; 33926</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>8815</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>22173</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>6524</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>40846</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>11643</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>67227</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>6524</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>49661</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>15859</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>89400</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1710</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4144; 16088</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1641; 9814</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>15942; 28815</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2942; 12902</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>29391; 53464</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>6025; 20598</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>58147; 76497</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2256; 12751</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>38107; 64830</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>9055; 26259</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>78022; 101954</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P56$auxiliar-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$auxiliar-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
